--- a/data/trans_orig/iP30A6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EB1EB72-4DED-48D8-8DA4-914AECB552F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37832C32-F06B-4B95-9864-62C01F9D52BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C32A249B-960E-4284-8B84-0B15F57586BE}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{77DA4EB6-C4FD-4557-AA99-ED24B94E0FDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>65,4%</t>
   </si>
   <si>
@@ -98,9 +218,6 @@
     <t>72,27%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>34,6%</t>
   </si>
   <si>
@@ -128,64 +245,61 @@
     <t>36,1%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -206,9 +320,6 @@
     <t>50,91%</t>
   </si>
   <si>
-    <t>63,98%</t>
-  </si>
-  <si>
     <t>57,43%</t>
   </si>
   <si>
@@ -230,9 +341,6 @@
     <t>42,45%</t>
   </si>
   <si>
-    <t>36,02%</t>
-  </si>
-  <si>
     <t>49,09%</t>
   </si>
   <si>
@@ -243,114 +351,6 @@
   </si>
   <si>
     <t>47,33%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
   </si>
   <si>
     <t>61,88%</t>
@@ -796,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD963F-D459-420D-9291-AECE9FD9B2A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A45E9-A7F4-4AC8-B9AC-767530F6F2AE}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -914,10 +914,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>223</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>158874</v>
+        <v>9100</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -929,10 +929,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>135289</v>
+        <v>13840</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -944,10 +944,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>294163</v>
+        <v>22939</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -965,10 +965,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>84039</v>
+        <v>2297</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -980,10 +980,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>52628</v>
+        <v>2159</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -995,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>136667</v>
+        <v>4456</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1016,10 +1016,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1031,10 +1031,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1046,10 +1046,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1224,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="D10" s="7">
-        <v>98261</v>
+        <v>158874</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1239,10 +1239,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="I10" s="7">
-        <v>96964</v>
+        <v>135289</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1254,10 +1254,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>278</v>
+        <v>418</v>
       </c>
       <c r="N10" s="7">
-        <v>195226</v>
+        <v>294163</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1275,10 +1275,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7">
-        <v>73195</v>
+        <v>84039</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1290,10 +1290,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="I11" s="7">
-        <v>71526</v>
+        <v>52628</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1305,10 +1305,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="N11" s="7">
-        <v>144721</v>
+        <v>136667</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1326,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1341,10 +1341,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1356,10 +1356,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1379,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="D13" s="7">
-        <v>9100</v>
+        <v>97529</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1394,10 +1394,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="I13" s="7">
-        <v>13840</v>
+        <v>102259</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1409,10 +1409,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="N13" s="7">
-        <v>22939</v>
+        <v>199788</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1430,10 +1430,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D14" s="7">
-        <v>2297</v>
+        <v>73590</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1445,10 +1445,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="I14" s="7">
-        <v>2159</v>
+        <v>64309</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1460,10 +1460,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="N14" s="7">
-        <v>4456</v>
+        <v>137899</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1496,10 +1496,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1511,10 +1511,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1534,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D16" s="7">
-        <v>97529</v>
+        <v>98261</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1549,10 +1549,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I16" s="7">
-        <v>102259</v>
+        <v>96964</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1561,22 +1561,22 @@
         <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="7">
+        <v>278</v>
+      </c>
+      <c r="N16" s="7">
+        <v>195226</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>274</v>
-      </c>
-      <c r="N16" s="7">
-        <v>199788</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,10 +1585,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D17" s="7">
-        <v>73590</v>
+        <v>73195</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1600,31 +1600,31 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7">
-        <v>64309</v>
+        <v>71526</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>189</v>
+      </c>
+      <c r="N17" s="7">
+        <v>144721</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="7">
-        <v>169</v>
-      </c>
-      <c r="N17" s="7">
-        <v>137899</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>104</v>
@@ -1636,10 +1636,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1651,10 +1651,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1666,10 +1666,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP30A6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37832C32-F06B-4B95-9864-62C01F9D52BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B513A967-2F32-41E4-AA79-B421AC355D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{77DA4EB6-C4FD-4557-AA99-ED24B94E0FDF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{763699FC-D7D1-4B49-91F7-81DCB8BB152A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Menores según si acuden una vez o más a la semana a un centro de comida rápida en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,36 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -98,313 +128,286 @@
     <t>93,66%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
     <t>66,85%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
   </si>
   <si>
     <t>72,64%</t>
   </si>
   <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
   </si>
   <si>
     <t>69,6%</t>
   </si>
   <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
+    <t>61,85%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
     <t>65,4%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>61,39%</t>
   </si>
   <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
   </si>
   <si>
     <t>59,16%</t>
   </si>
   <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
     <t>57,31%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>57,55%</t>
   </si>
   <si>
-    <t>50,91%</t>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
   </si>
   <si>
     <t>57,43%</t>
   </si>
   <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
   </si>
   <si>
     <t>61,88%</t>
   </si>
   <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
   </si>
   <si>
     <t>63,79%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -511,39 +514,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -595,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -706,13 +709,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -721,6 +717,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -785,19 +788,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A45E9-A7F4-4AC8-B9AC-767530F6F2AE}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B083F5C-A843-475A-ABFD-C7A42A6DFB93}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -914,10 +937,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>9100</v>
+        <v>2297</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -929,10 +952,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>13840</v>
+        <v>2159</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -944,10 +967,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>22939</v>
+        <v>4456</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -965,10 +988,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>2297</v>
+        <v>9100</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -980,10 +1003,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>2159</v>
+        <v>13840</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -995,10 +1018,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>4456</v>
+        <v>22939</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1069,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>75171</v>
+        <v>37277</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1084,10 +1107,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>73828</v>
+        <v>27807</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1099,19 +1122,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="N7" s="7">
-        <v>148999</v>
+        <v>65084</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1120,49 +1143,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>105</v>
+      </c>
+      <c r="D8" s="7">
+        <v>75171</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7">
-        <v>37277</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>121</v>
+      </c>
+      <c r="I8" s="7">
+        <v>73828</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="7">
+        <v>226</v>
+      </c>
+      <c r="N8" s="7">
+        <v>148999</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="7">
-        <v>41</v>
-      </c>
-      <c r="I8" s="7">
-        <v>27807</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="7">
-        <v>83</v>
-      </c>
-      <c r="N8" s="7">
-        <v>65084</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1218,55 +1241,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="D10" s="7">
-        <v>158874</v>
+        <v>84039</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>74</v>
+      </c>
+      <c r="I10" s="7">
+        <v>52628</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>195</v>
-      </c>
-      <c r="I10" s="7">
-        <v>135289</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>175</v>
+      </c>
+      <c r="N10" s="7">
+        <v>136667</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>418</v>
-      </c>
-      <c r="N10" s="7">
-        <v>294163</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1275,49 +1298,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7">
-        <v>84039</v>
+        <v>158874</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>195</v>
+      </c>
+      <c r="I11" s="7">
+        <v>135289</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>74</v>
-      </c>
-      <c r="I11" s="7">
-        <v>52628</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>418</v>
+      </c>
+      <c r="N11" s="7">
+        <v>294163</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>175</v>
-      </c>
-      <c r="N11" s="7">
-        <v>136667</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,55 +1396,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="D13" s="7">
-        <v>97529</v>
+        <v>73590</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>78</v>
+      </c>
+      <c r="I13" s="7">
+        <v>64309</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>145</v>
-      </c>
-      <c r="I13" s="7">
-        <v>102259</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>169</v>
+      </c>
+      <c r="N13" s="7">
+        <v>137899</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>274</v>
-      </c>
-      <c r="N13" s="7">
-        <v>199788</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1430,49 +1453,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="D14" s="7">
-        <v>73590</v>
+        <v>97529</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>145</v>
+      </c>
+      <c r="I14" s="7">
+        <v>102259</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>78</v>
-      </c>
-      <c r="I14" s="7">
-        <v>64309</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>274</v>
+      </c>
+      <c r="N14" s="7">
+        <v>199788</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>169</v>
-      </c>
-      <c r="N14" s="7">
-        <v>137899</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1528,55 +1551,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="D16" s="7">
-        <v>98261</v>
+        <v>73195</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>94</v>
+      </c>
+      <c r="I16" s="7">
+        <v>71526</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>141</v>
-      </c>
-      <c r="I16" s="7">
-        <v>96964</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>189</v>
+      </c>
+      <c r="N16" s="7">
+        <v>144721</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="M16" s="7">
-        <v>278</v>
-      </c>
-      <c r="N16" s="7">
-        <v>195226</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,40 +1608,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="D17" s="7">
-        <v>73195</v>
+        <v>98261</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>141</v>
+      </c>
+      <c r="I17" s="7">
+        <v>96964</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>94</v>
-      </c>
-      <c r="I17" s="7">
-        <v>71526</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="N17" s="7">
-        <v>144721</v>
+        <v>195226</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -1689,10 +1712,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>608</v>
+        <v>332</v>
       </c>
       <c r="D19" s="7">
-        <v>438937</v>
+        <v>270397</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>105</v>
@@ -1704,10 +1727,10 @@
         <v>107</v>
       </c>
       <c r="H19" s="7">
-        <v>625</v>
+        <v>290</v>
       </c>
       <c r="I19" s="7">
-        <v>422179</v>
+        <v>218430</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>108</v>
@@ -1719,10 +1742,10 @@
         <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>1233</v>
+        <v>622</v>
       </c>
       <c r="N19" s="7">
-        <v>861115</v>
+        <v>488827</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>111</v>
@@ -1740,10 +1763,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>332</v>
+        <v>608</v>
       </c>
       <c r="D20" s="7">
-        <v>270397</v>
+        <v>438936</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>114</v>
@@ -1755,10 +1778,10 @@
         <v>116</v>
       </c>
       <c r="H20" s="7">
-        <v>290</v>
+        <v>625</v>
       </c>
       <c r="I20" s="7">
-        <v>218430</v>
+        <v>422179</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>117</v>
@@ -1770,10 +1793,10 @@
         <v>119</v>
       </c>
       <c r="M20" s="7">
-        <v>622</v>
+        <v>1233</v>
       </c>
       <c r="N20" s="7">
-        <v>488827</v>
+        <v>861115</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -1794,7 +1817,7 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1834,6 +1857,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30A6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A6_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B513A967-2F32-41E4-AA79-B421AC355D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3EF7E53-7A01-40C0-A76F-0017339CFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{763699FC-D7D1-4B49-91F7-81DCB8BB152A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B11FC25-193B-434F-9659-196A63838AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Menores según si acuden una vez o más a la semana a un centro de comida rápida en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,337 +74,343 @@
     <t>20,15%</t>
   </si>
   <si>
-    <t>5,52%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
+    <t>64,2%</t>
   </si>
   <si>
     <t>57,43%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>38,12%</t>
   </si>
   <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
   </si>
   <si>
     <t>34,1%</t>
   </si>
   <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>36,21%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>61,88%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>63,79%</t>
   </si>
   <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,7 +825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B083F5C-A843-475A-ABFD-C7A42A6DFB93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9DB63E-3C8E-4F3E-AC15-A7DD72210255}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1131,10 +1137,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1149,13 +1155,13 @@
         <v>75171</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -1164,13 +1170,13 @@
         <v>73828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>226</v>
@@ -1179,13 +1185,13 @@
         <v>148999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1241,7 +1247,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1253,13 +1259,13 @@
         <v>84039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>74</v>
@@ -1268,13 +1274,13 @@
         <v>52628</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>175</v>
@@ -1283,13 +1289,13 @@
         <v>136667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,13 +1310,13 @@
         <v>158874</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>195</v>
@@ -1319,13 +1325,13 @@
         <v>135289</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>418</v>
@@ -1334,13 +1340,13 @@
         <v>294163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1396,7 +1402,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1408,13 +1414,13 @@
         <v>73590</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>78</v>
@@ -1423,13 +1429,13 @@
         <v>64309</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -1438,13 +1444,13 @@
         <v>137899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1465,13 @@
         <v>97529</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>145</v>
@@ -1474,13 +1480,13 @@
         <v>102259</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>274</v>
@@ -1489,13 +1495,13 @@
         <v>199788</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1551,7 +1557,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1569,13 @@
         <v>73195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -1578,13 +1584,13 @@
         <v>71526</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>189</v>
@@ -1593,13 +1599,13 @@
         <v>144721</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1620,13 @@
         <v>98261</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -1629,13 +1635,13 @@
         <v>96964</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>278</v>
@@ -1644,13 +1650,13 @@
         <v>195226</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1724,13 @@
         <v>270397</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>290</v>
@@ -1733,13 +1739,13 @@
         <v>218430</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>622</v>
@@ -1748,13 +1754,13 @@
         <v>488827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1775,13 @@
         <v>438936</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>625</v>
@@ -1784,13 +1790,13 @@
         <v>422179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1233</v>
@@ -1799,13 +1805,13 @@
         <v>861115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1861,7 +1867,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30A6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30A6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3EF7E53-7A01-40C0-A76F-0017339CFA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D56025EA-3C87-44BF-91FE-FAA514736051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B11FC25-193B-434F-9659-196A63838AA2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D8F4E167-15EF-435D-9DFC-79E2689151EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si acuden una vez o más a la semana a un centro de comida rápida en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>41,56%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
   </si>
   <si>
     <t>58,44%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
   </si>
   <si>
     <t>64,27%</t>
   </si>
   <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9DB63E-3C8E-4F3E-AC15-A7DD72210255}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E44401-FBD1-4EF3-9D96-AD8EDDFE3B54}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>2297</v>
+        <v>28808</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7">
-        <v>2159</v>
+        <v>45062</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="N4" s="7">
-        <v>4456</v>
+        <v>73869</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="D5" s="7">
-        <v>9100</v>
+        <v>85443</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I5" s="7">
-        <v>13840</v>
+        <v>91753</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>263</v>
       </c>
       <c r="N5" s="7">
-        <v>22939</v>
+        <v>177197</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>37277</v>
+        <v>50421</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="I7" s="7">
-        <v>27807</v>
+        <v>85917</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="N7" s="7">
-        <v>65084</v>
+        <v>136338</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="D8" s="7">
-        <v>75171</v>
+        <v>135693</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="I8" s="7">
-        <v>73828</v>
+        <v>161603</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>226</v>
+        <v>418</v>
       </c>
       <c r="N8" s="7">
-        <v>148999</v>
+        <v>297296</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="D10" s="7">
-        <v>84039</v>
+        <v>82520</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7">
-        <v>52628</v>
+        <v>78435</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N10" s="7">
-        <v>136667</v>
+        <v>160955</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="D11" s="7">
-        <v>158874</v>
+        <v>105729</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c r="I11" s="7">
-        <v>135289</v>
+        <v>104654</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>418</v>
+        <v>274</v>
       </c>
       <c r="N11" s="7">
-        <v>294163</v>
+        <v>210384</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>73590</v>
+        <v>68381</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="I13" s="7">
-        <v>64309</v>
+        <v>74920</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="N13" s="7">
-        <v>137899</v>
+        <v>143302</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D14" s="7">
-        <v>97529</v>
+        <v>96138</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I14" s="7">
-        <v>102259</v>
+        <v>102389</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N14" s="7">
-        <v>199788</v>
+        <v>198526</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>290</v>
+      </c>
+      <c r="D16" s="7">
+        <v>230130</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>332</v>
+      </c>
+      <c r="I16" s="7">
+        <v>284334</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>622</v>
+      </c>
+      <c r="N16" s="7">
+        <v>514464</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="7">
-        <v>73195</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="7">
-        <v>94</v>
-      </c>
-      <c r="I16" s="7">
-        <v>71526</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>189</v>
-      </c>
-      <c r="N16" s="7">
-        <v>144721</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>137</v>
+        <v>625</v>
       </c>
       <c r="D17" s="7">
-        <v>98261</v>
+        <v>423004</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>608</v>
+      </c>
+      <c r="I17" s="7">
+        <v>460399</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>141</v>
-      </c>
-      <c r="I17" s="7">
-        <v>96964</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1233</v>
+      </c>
+      <c r="N17" s="7">
+        <v>883403</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>278</v>
-      </c>
-      <c r="N17" s="7">
-        <v>195226</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>332</v>
-      </c>
-      <c r="D19" s="7">
-        <v>270397</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>290</v>
-      </c>
-      <c r="I19" s="7">
-        <v>218430</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>622</v>
-      </c>
-      <c r="N19" s="7">
-        <v>488827</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>608</v>
-      </c>
-      <c r="D20" s="7">
-        <v>438936</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>625</v>
-      </c>
-      <c r="I20" s="7">
-        <v>422179</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1233</v>
-      </c>
-      <c r="N20" s="7">
-        <v>861115</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
